--- a/public/excel/监测点详情.xlsx
+++ b/public/excel/监测点详情.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="12080" tabRatio="781"/>
+    <workbookView windowWidth="28060" windowHeight="12060" tabRatio="781"/>
   </bookViews>
   <sheets>
     <sheet name="1贵州省农业外来入侵植物监测点概况调查表" sheetId="2" r:id="rId1"/>
@@ -143,28 +143,10 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>发生生境</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>危害情况</t>
-    </r>
+    <t>发生生境</t>
+  </si>
+  <si>
+    <t>危害情况</t>
   </si>
   <si>
     <r>
@@ -1126,10 +1108,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1202,59 +1184,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1268,11 +1198,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1284,8 +1273,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1299,16 +1296,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1324,24 +1313,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1354,7 +1336,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1366,13 +1384,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1384,7 +1420,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1396,7 +1438,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1408,7 +1450,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1420,13 +1462,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1438,19 +1486,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1462,79 +1516,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1561,7 +1543,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1582,6 +1564,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1592,15 +1598,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1630,165 +1627,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2244,8 +2226,8 @@
   </sheetPr>
   <dimension ref="A1:AK11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AK2" sqref="AK2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -2329,10 +2311,10 @@
       <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="7" t="s">

--- a/public/excel/监测点详情.xlsx
+++ b/public/excel/监测点详情.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="12060" tabRatio="781"/>
+    <workbookView windowWidth="28800" windowHeight="12340" tabRatio="781" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1贵州省农业外来入侵植物监测点概况调查表" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218">
   <si>
     <t>流水号</t>
   </si>
@@ -748,6 +748,9 @@
     <t>赵泽运</t>
   </si>
   <si>
+    <t>12432412352345234</t>
+  </si>
+  <si>
     <t>空心莲子草</t>
   </si>
   <si>
@@ -1109,9 +1112,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1184,6 +1187,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1198,8 +1208,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1213,27 +1230,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -1241,63 +1237,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1326,6 +1267,68 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1336,19 +1339,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1360,7 +1363,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1372,7 +1393,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1384,13 +1411,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1408,43 +1429,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1462,13 +1453,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1480,43 +1513,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1549,6 +1552,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1559,21 +1577,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1632,145 +1635,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1821,6 +1824,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2226,7 +2232,7 @@
   </sheetPr>
   <dimension ref="A1:AK11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
@@ -2868,10 +2874,10 @@
   </sheetPr>
   <dimension ref="A1:AA193"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AB8" sqref="AB8"/>
+      <selection pane="bottomLeft" activeCell="P2" sqref="P2:P122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -2888,10 +2894,11 @@
     <col min="10" max="10" width="12.7788461538462" customWidth="1"/>
     <col min="11" max="11" width="9.66346153846154" customWidth="1"/>
     <col min="12" max="12" width="9.44230769230769" customWidth="1"/>
-    <col min="13" max="13" width="31.2211538461538" customWidth="1"/>
+    <col min="13" max="13" width="25.9615384615385" customWidth="1"/>
     <col min="14" max="14" width="6.77884615384615" customWidth="1"/>
     <col min="15" max="15" width="8.44230769230769" customWidth="1"/>
-    <col min="16" max="18" width="5" customWidth="1"/>
+    <col min="16" max="16" width="36.8461538461538" customWidth="1"/>
+    <col min="17" max="18" width="5" customWidth="1"/>
     <col min="19" max="19" width="5.10576923076923" customWidth="1"/>
     <col min="20" max="20" width="13.1057692307692" customWidth="1"/>
     <col min="21" max="21" width="19.0576923076923" customWidth="1"/>
@@ -3032,7 +3039,9 @@
       <c r="O2" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P2" s="2"/>
+      <c r="P2" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
@@ -3040,7 +3049,7 @@
         <v>1</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="V2" s="2">
         <v>16000</v>
@@ -3049,7 +3058,7 @@
         <v>0.75</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Y2" s="2"/>
       <c r="Z2" t="s">
@@ -3105,7 +3114,9 @@
       <c r="O3" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P3" s="2"/>
+      <c r="P3" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
@@ -3113,7 +3124,7 @@
         <v>2</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="V3" s="2">
         <v>200</v>
@@ -3122,7 +3133,7 @@
         <v>0.1</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Y3" s="2"/>
     </row>
@@ -3172,7 +3183,9 @@
       <c r="O4" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P4" s="2"/>
+      <c r="P4" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
@@ -3180,16 +3193,16 @@
         <v>3</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="V4" s="2">
         <v>10</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Y4" s="2"/>
     </row>
@@ -3239,7 +3252,9 @@
       <c r="O5" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P5" s="2"/>
+      <c r="P5" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
@@ -3247,7 +3262,7 @@
         <v>4</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V5" s="2">
         <v>1300</v>
@@ -3256,7 +3271,7 @@
         <v>0.5</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Y5" s="2"/>
     </row>
@@ -3306,7 +3321,9 @@
       <c r="O6" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P6" s="2"/>
+      <c r="P6" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -3314,16 +3331,16 @@
         <v>5</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="V6" s="2">
         <v>10</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Y6" s="2"/>
     </row>
@@ -3373,7 +3390,9 @@
       <c r="O7" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P7" s="2"/>
+      <c r="P7" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
@@ -3381,25 +3400,25 @@
         <v>6</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="V7" s="2">
         <v>1</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Y7" s="2"/>
     </row>
     <row r="8" ht="12" customHeight="1" spans="1:27">
       <c r="A8" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>91</v>
@@ -3417,16 +3436,16 @@
         <v>93</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L8" s="2">
         <v>1098</v>
@@ -3440,7 +3459,9 @@
       <c r="O8" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P8" s="2"/>
+      <c r="P8" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
@@ -3448,7 +3469,7 @@
         <v>1</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="V8" s="2">
         <v>13000</v>
@@ -3457,7 +3478,7 @@
         <v>0.6</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Y8" s="2"/>
       <c r="Z8" t="s">
@@ -3469,10 +3490,10 @@
     </row>
     <row r="9" ht="12" customHeight="1" spans="1:25">
       <c r="A9" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>91</v>
@@ -3490,16 +3511,16 @@
         <v>93</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L9" s="2">
         <v>1098</v>
@@ -3513,7 +3534,9 @@
       <c r="O9" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P9" s="2"/>
+      <c r="P9" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
@@ -3521,7 +3544,7 @@
         <v>2</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="V9" s="2">
         <v>300</v>
@@ -3530,16 +3553,16 @@
         <v>0.2</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Y9" s="2"/>
     </row>
     <row r="10" ht="12" customHeight="1" spans="1:25">
       <c r="A10" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>91</v>
@@ -3557,16 +3580,16 @@
         <v>93</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L10" s="2">
         <v>1098</v>
@@ -3580,7 +3603,9 @@
       <c r="O10" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P10" s="2"/>
+      <c r="P10" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
@@ -3588,7 +3613,7 @@
         <v>3</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="V10" s="2">
         <v>150</v>
@@ -3597,16 +3622,16 @@
         <v>0.3</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Y10" s="2"/>
     </row>
     <row r="11" ht="12" customHeight="1" spans="1:25">
       <c r="A11" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>91</v>
@@ -3624,16 +3649,16 @@
         <v>93</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L11" s="2">
         <v>1098</v>
@@ -3647,7 +3672,9 @@
       <c r="O11" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P11" s="2"/>
+      <c r="P11" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
@@ -3655,25 +3682,25 @@
         <v>4</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="V11" s="2">
         <v>10</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Y11" s="2"/>
     </row>
     <row r="12" ht="12" customHeight="1" spans="1:25">
       <c r="A12" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>91</v>
@@ -3691,16 +3718,16 @@
         <v>93</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L12" s="2">
         <v>1098</v>
@@ -3714,7 +3741,9 @@
       <c r="O12" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P12" s="2"/>
+      <c r="P12" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
@@ -3722,25 +3751,25 @@
         <v>5</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="V12" s="2">
         <v>3</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Y12" s="2"/>
     </row>
     <row r="13" ht="12" customHeight="1" spans="1:25">
       <c r="A13" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>91</v>
@@ -3758,16 +3787,16 @@
         <v>93</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L13" s="2">
         <v>1098</v>
@@ -3781,7 +3810,9 @@
       <c r="O13" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P13" s="2"/>
+      <c r="P13" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
@@ -3789,25 +3820,25 @@
         <v>6</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="V13" s="2">
         <v>30</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Y13" s="2"/>
     </row>
     <row r="14" ht="12" customHeight="1" spans="1:25">
       <c r="A14" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>91</v>
@@ -3825,16 +3856,16 @@
         <v>93</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L14" s="2">
         <v>1098</v>
@@ -3848,7 +3879,9 @@
       <c r="O14" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P14" s="2"/>
+      <c r="P14" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
@@ -3856,25 +3889,25 @@
         <v>7</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="V14" s="2">
         <v>18</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Y14" s="2"/>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>91</v>
@@ -3892,16 +3925,16 @@
         <v>93</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L15" s="2">
         <v>1098</v>
@@ -3915,7 +3948,9 @@
       <c r="O15" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P15" s="2"/>
+      <c r="P15" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
@@ -3923,25 +3958,25 @@
         <v>8</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="V15" s="2">
         <v>4</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Y15" s="2"/>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>91</v>
@@ -3959,16 +3994,16 @@
         <v>93</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L16" s="2">
         <v>1082</v>
@@ -3982,7 +4017,9 @@
       <c r="O16" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P16" s="2"/>
+      <c r="P16" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
@@ -3990,7 +4027,7 @@
         <v>1</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="V16" s="2">
         <v>1500</v>
@@ -3999,11 +4036,11 @@
         <v>0.3</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AA16">
         <v>300</v>
@@ -4011,10 +4048,10 @@
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>91</v>
@@ -4032,16 +4069,16 @@
         <v>93</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L17" s="2">
         <v>1082</v>
@@ -4055,7 +4092,9 @@
       <c r="O17" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P17" s="2"/>
+      <c r="P17" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
@@ -4063,25 +4102,25 @@
         <v>2</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="V17" s="2">
         <v>4</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y17" s="2"/>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>91</v>
@@ -4099,16 +4138,16 @@
         <v>93</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L18" s="2">
         <v>1082</v>
@@ -4122,7 +4161,9 @@
       <c r="O18" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P18" s="2"/>
+      <c r="P18" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
@@ -4130,25 +4171,25 @@
         <v>3</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="V18" s="2">
         <v>20</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y18" s="2"/>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>91</v>
@@ -4166,16 +4207,16 @@
         <v>93</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L19" s="2">
         <v>1082</v>
@@ -4189,7 +4230,9 @@
       <c r="O19" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P19" s="2"/>
+      <c r="P19" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
@@ -4197,7 +4240,7 @@
         <v>4</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="V19" s="2">
         <v>6000</v>
@@ -4206,16 +4249,16 @@
         <v>0.6</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y19" s="2"/>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>91</v>
@@ -4233,16 +4276,16 @@
         <v>93</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L20" s="2">
         <v>1082</v>
@@ -4256,7 +4299,9 @@
       <c r="O20" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P20" s="2"/>
+      <c r="P20" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
@@ -4264,7 +4309,7 @@
         <v>5</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="V20" s="2">
         <v>1000</v>
@@ -4273,16 +4318,16 @@
         <v>0.3</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y20" s="2"/>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>91</v>
@@ -4300,16 +4345,16 @@
         <v>93</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L21" s="2">
         <v>1082</v>
@@ -4323,7 +4368,9 @@
       <c r="O21" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P21" s="2"/>
+      <c r="P21" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
@@ -4331,25 +4378,25 @@
         <v>6</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="V21" s="2">
         <v>70</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X21" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y21" s="2"/>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>91</v>
@@ -4367,16 +4414,16 @@
         <v>93</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L22" s="2">
         <v>1082</v>
@@ -4390,7 +4437,9 @@
       <c r="O22" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P22" s="2"/>
+      <c r="P22" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
@@ -4398,7 +4447,7 @@
         <v>7</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="V22" s="2">
         <v>800</v>
@@ -4407,16 +4456,16 @@
         <v>0.1</v>
       </c>
       <c r="X22" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y22" s="2"/>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>91</v>
@@ -4434,16 +4483,16 @@
         <v>93</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L23" s="2">
         <v>1082</v>
@@ -4457,7 +4506,9 @@
       <c r="O23" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P23" s="2"/>
+      <c r="P23" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
@@ -4465,25 +4516,25 @@
         <v>8</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="V23" s="2">
         <v>3</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X23" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y23" s="2"/>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>91</v>
@@ -4501,16 +4552,16 @@
         <v>93</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L24" s="2">
         <v>1082</v>
@@ -4524,7 +4575,9 @@
       <c r="O24" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P24" s="2"/>
+      <c r="P24" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
@@ -4532,7 +4585,7 @@
         <v>9</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="V24" s="2">
         <v>200</v>
@@ -4541,16 +4594,16 @@
         <v>0.2</v>
       </c>
       <c r="X24" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y24" s="2"/>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>91</v>
@@ -4568,16 +4621,16 @@
         <v>93</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L25" s="2">
         <v>1082</v>
@@ -4591,7 +4644,9 @@
       <c r="O25" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P25" s="2"/>
+      <c r="P25" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
@@ -4599,7 +4654,7 @@
         <v>10</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="V25" s="2">
         <v>500</v>
@@ -4608,16 +4663,16 @@
         <v>0.1</v>
       </c>
       <c r="X25" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y25" s="2"/>
     </row>
     <row r="26" ht="12" customHeight="1" spans="1:27">
       <c r="A26" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>91</v>
@@ -4641,10 +4696,10 @@
         <v>94</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L26" s="2">
         <v>1073</v>
@@ -4658,7 +4713,9 @@
       <c r="O26" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P26" s="2"/>
+      <c r="P26" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
@@ -4666,7 +4723,7 @@
         <v>1</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="V26" s="2">
         <v>1600</v>
@@ -4675,11 +4732,11 @@
         <v>0.4</v>
       </c>
       <c r="X26" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AA26">
         <v>400</v>
@@ -4687,10 +4744,10 @@
     </row>
     <row r="27" ht="12" customHeight="1" spans="1:25">
       <c r="A27" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>91</v>
@@ -4714,10 +4771,10 @@
         <v>94</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L27" s="2">
         <v>1073</v>
@@ -4731,7 +4788,9 @@
       <c r="O27" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P27" s="2"/>
+      <c r="P27" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
@@ -4739,7 +4798,7 @@
         <v>2</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="V27" s="2">
         <v>200</v>
@@ -4748,16 +4807,16 @@
         <v>0.2</v>
       </c>
       <c r="X27" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y27" s="2"/>
     </row>
     <row r="28" ht="12" customHeight="1" spans="1:25">
       <c r="A28" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>91</v>
@@ -4781,10 +4840,10 @@
         <v>94</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L28" s="2">
         <v>1073</v>
@@ -4798,7 +4857,9 @@
       <c r="O28" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P28" s="2"/>
+      <c r="P28" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
@@ -4806,25 +4867,25 @@
         <v>3</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="V28" s="2">
         <v>9</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X28" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y28" s="2"/>
     </row>
     <row r="29" ht="12" customHeight="1" spans="1:25">
       <c r="A29" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>91</v>
@@ -4848,10 +4909,10 @@
         <v>94</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L29" s="2">
         <v>1073</v>
@@ -4865,7 +4926,9 @@
       <c r="O29" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P29" s="2"/>
+      <c r="P29" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
@@ -4873,25 +4936,25 @@
         <v>4</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="V29" s="2">
         <v>30</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X29" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y29" s="2"/>
     </row>
     <row r="30" ht="12" customHeight="1" spans="1:25">
       <c r="A30" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>91</v>
@@ -4915,10 +4978,10 @@
         <v>94</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L30" s="2">
         <v>1073</v>
@@ -4932,7 +4995,9 @@
       <c r="O30" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P30" s="2"/>
+      <c r="P30" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
@@ -4940,25 +5005,25 @@
         <v>5</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="V30" s="2">
         <v>2</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y30" s="2"/>
     </row>
     <row r="31" ht="12" customHeight="1" spans="1:25">
       <c r="A31" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>91</v>
@@ -4982,10 +5047,10 @@
         <v>94</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L31" s="2">
         <v>1073</v>
@@ -4999,7 +5064,9 @@
       <c r="O31" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P31" s="2"/>
+      <c r="P31" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
@@ -5007,25 +5074,25 @@
         <v>6</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="V31" s="2">
         <v>4</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y31" s="2"/>
     </row>
     <row r="32" ht="12" customHeight="1" spans="1:25">
       <c r="A32" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>91</v>
@@ -5049,10 +5116,10 @@
         <v>94</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L32" s="2">
         <v>1073</v>
@@ -5066,7 +5133,9 @@
       <c r="O32" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P32" s="2"/>
+      <c r="P32" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
@@ -5074,25 +5143,25 @@
         <v>7</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="V32" s="2">
         <v>20</v>
       </c>
       <c r="W32" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X32" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y32" s="2"/>
     </row>
     <row r="33" ht="12" customHeight="1" spans="1:25">
       <c r="A33" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>91</v>
@@ -5116,10 +5185,10 @@
         <v>94</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L33" s="2">
         <v>1073</v>
@@ -5133,7 +5202,9 @@
       <c r="O33" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P33" s="2"/>
+      <c r="P33" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
@@ -5141,25 +5212,25 @@
         <v>8</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="V33" s="2">
         <v>5</v>
       </c>
       <c r="W33" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X33" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y33" s="2"/>
     </row>
     <row r="34" ht="12" customHeight="1" spans="1:25">
       <c r="A34" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>91</v>
@@ -5183,10 +5254,10 @@
         <v>94</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L34" s="2">
         <v>1073</v>
@@ -5200,7 +5271,9 @@
       <c r="O34" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P34" s="2"/>
+      <c r="P34" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
@@ -5208,25 +5281,25 @@
         <v>9</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="V34" s="2">
         <v>10</v>
       </c>
       <c r="W34" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X34" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y34" s="2"/>
     </row>
     <row r="35" ht="12" customHeight="1" spans="1:25">
       <c r="A35" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>91</v>
@@ -5250,10 +5323,10 @@
         <v>94</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L35" s="2">
         <v>1073</v>
@@ -5267,7 +5340,9 @@
       <c r="O35" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P35" s="2"/>
+      <c r="P35" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
@@ -5275,25 +5350,25 @@
         <v>10</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="V35" s="2">
         <v>4</v>
       </c>
       <c r="W35" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X35" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y35" s="2"/>
     </row>
     <row r="36" ht="12" customHeight="1" spans="1:25">
       <c r="A36" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>91</v>
@@ -5317,10 +5392,10 @@
         <v>94</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L36" s="2">
         <v>1073</v>
@@ -5334,7 +5409,9 @@
       <c r="O36" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P36" s="2"/>
+      <c r="P36" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
@@ -5342,25 +5419,25 @@
         <v>11</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="V36" s="2">
         <v>6</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y36" s="2"/>
     </row>
     <row r="37" ht="12" customHeight="1" spans="1:25">
       <c r="A37" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>91</v>
@@ -5384,10 +5461,10 @@
         <v>94</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L37" s="2">
         <v>1073</v>
@@ -5401,7 +5478,9 @@
       <c r="O37" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P37" s="2"/>
+      <c r="P37" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
@@ -5409,25 +5488,25 @@
         <v>12</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="V37" s="2">
         <v>2</v>
       </c>
       <c r="W37" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X37" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y37" s="2"/>
     </row>
     <row r="38" ht="12" customHeight="1" spans="1:25">
       <c r="A38" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>91</v>
@@ -5451,10 +5530,10 @@
         <v>94</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L38" s="2">
         <v>1073</v>
@@ -5468,7 +5547,9 @@
       <c r="O38" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P38" s="2"/>
+      <c r="P38" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
@@ -5476,25 +5557,25 @@
         <v>13</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="V38" s="2">
         <v>8</v>
       </c>
       <c r="W38" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X38" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y38" s="2"/>
     </row>
     <row r="39" ht="12" customHeight="1" spans="1:25">
       <c r="A39" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>91</v>
@@ -5518,10 +5599,10 @@
         <v>94</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L39" s="2">
         <v>1073</v>
@@ -5535,7 +5616,9 @@
       <c r="O39" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P39" s="2"/>
+      <c r="P39" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
@@ -5543,7 +5626,7 @@
         <v>14</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="V39" s="2">
         <v>1500</v>
@@ -5552,16 +5635,16 @@
         <v>0.3</v>
       </c>
       <c r="X39" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y39" s="2"/>
     </row>
     <row r="40" ht="12" customHeight="1" spans="1:25">
       <c r="A40" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>91</v>
@@ -5585,10 +5668,10 @@
         <v>94</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L40" s="2">
         <v>1073</v>
@@ -5602,7 +5685,9 @@
       <c r="O40" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P40" s="2"/>
+      <c r="P40" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
@@ -5610,25 +5695,25 @@
         <v>15</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="V40" s="2">
         <v>4</v>
       </c>
       <c r="W40" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X40" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y40" s="2"/>
     </row>
     <row r="41" ht="12" customHeight="1" spans="1:25">
       <c r="A41" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>91</v>
@@ -5652,10 +5737,10 @@
         <v>94</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L41" s="2">
         <v>1073</v>
@@ -5669,7 +5754,9 @@
       <c r="O41" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P41" s="2"/>
+      <c r="P41" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
@@ -5677,25 +5764,25 @@
         <v>16</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="V41" s="2">
         <v>2</v>
       </c>
       <c r="W41" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X41" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y41" s="2"/>
     </row>
     <row r="42" ht="12" customHeight="1" spans="1:25">
       <c r="A42" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>91</v>
@@ -5719,10 +5806,10 @@
         <v>94</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L42" s="2">
         <v>1073</v>
@@ -5736,7 +5823,9 @@
       <c r="O42" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P42" s="2"/>
+      <c r="P42" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
@@ -5744,25 +5833,25 @@
         <v>17</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="V42" s="2">
         <v>7</v>
       </c>
       <c r="W42" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X42" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y42" s="2"/>
     </row>
     <row r="43" ht="12" customHeight="1" spans="1:25">
       <c r="A43" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>91</v>
@@ -5786,10 +5875,10 @@
         <v>94</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L43" s="2">
         <v>1073</v>
@@ -5803,7 +5892,9 @@
       <c r="O43" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P43" s="2"/>
+      <c r="P43" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
@@ -5811,25 +5902,25 @@
         <v>18</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="V43" s="2">
         <v>7</v>
       </c>
       <c r="W43" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X43" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y43" s="2"/>
     </row>
     <row r="44" ht="12" customHeight="1" spans="1:25">
       <c r="A44" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>91</v>
@@ -5853,10 +5944,10 @@
         <v>94</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L44" s="2">
         <v>1073</v>
@@ -5870,7 +5961,9 @@
       <c r="O44" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P44" s="2"/>
+      <c r="P44" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
@@ -5878,25 +5971,25 @@
         <v>19</v>
       </c>
       <c r="U44" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="V44" s="2">
         <v>2</v>
       </c>
       <c r="W44" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X44" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y44" s="2"/>
     </row>
     <row r="45" ht="12" customHeight="1" spans="1:25">
       <c r="A45" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>91</v>
@@ -5920,10 +6013,10 @@
         <v>94</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L45" s="2">
         <v>1073</v>
@@ -5937,7 +6030,9 @@
       <c r="O45" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P45" s="2"/>
+      <c r="P45" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
@@ -5945,25 +6040,25 @@
         <v>20</v>
       </c>
       <c r="U45" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="V45" s="2">
         <v>2</v>
       </c>
       <c r="W45" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X45" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y45" s="2"/>
     </row>
     <row r="46" spans="1:25">
       <c r="A46" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>91</v>
@@ -5987,10 +6082,10 @@
         <v>94</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L46" s="2">
         <v>1073</v>
@@ -6004,7 +6099,9 @@
       <c r="O46" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P46" s="2"/>
+      <c r="P46" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
@@ -6012,25 +6109,25 @@
         <v>21</v>
       </c>
       <c r="U46" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="V46" s="2">
         <v>3</v>
       </c>
       <c r="W46" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X46" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y46" s="2"/>
     </row>
     <row r="47" ht="12" customHeight="1" spans="1:26">
       <c r="A47" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>91</v>
@@ -6054,10 +6151,10 @@
         <v>94</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L47" s="2">
         <v>1072</v>
@@ -6071,7 +6168,9 @@
       <c r="O47" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P47" s="2"/>
+      <c r="P47" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
@@ -6079,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="V47" s="2">
         <v>14000</v>
@@ -6088,7 +6187,7 @@
         <v>0.7</v>
       </c>
       <c r="X47" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y47" s="2"/>
       <c r="Z47" t="s">
@@ -6097,10 +6196,10 @@
     </row>
     <row r="48" ht="12" customHeight="1" spans="1:25">
       <c r="A48" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>91</v>
@@ -6124,10 +6223,10 @@
         <v>94</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L48" s="2">
         <v>1072</v>
@@ -6141,7 +6240,9 @@
       <c r="O48" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P48" s="2"/>
+      <c r="P48" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
@@ -6149,7 +6250,7 @@
         <v>2</v>
       </c>
       <c r="U48" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="V48" s="2">
         <v>5</v>
@@ -6158,16 +6259,16 @@
         <v>0.1</v>
       </c>
       <c r="X48" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y48" s="2"/>
     </row>
     <row r="49" ht="12" customHeight="1" spans="1:25">
       <c r="A49" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>91</v>
@@ -6191,10 +6292,10 @@
         <v>94</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L49" s="2">
         <v>1072</v>
@@ -6208,7 +6309,9 @@
       <c r="O49" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P49" s="2"/>
+      <c r="P49" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
@@ -6216,25 +6319,25 @@
         <v>3</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="V49" s="2">
         <v>8</v>
       </c>
       <c r="W49" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X49" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y49" s="2"/>
     </row>
     <row r="50" ht="12" customHeight="1" spans="1:25">
       <c r="A50" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>91</v>
@@ -6258,10 +6361,10 @@
         <v>94</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L50" s="2">
         <v>1072</v>
@@ -6275,7 +6378,9 @@
       <c r="O50" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P50" s="2"/>
+      <c r="P50" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
@@ -6283,7 +6388,7 @@
         <v>4</v>
       </c>
       <c r="U50" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="V50" s="2">
         <v>6</v>
@@ -6292,16 +6397,16 @@
         <v>0.1</v>
       </c>
       <c r="X50" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y50" s="2"/>
     </row>
     <row r="51" ht="12" customHeight="1" spans="1:25">
       <c r="A51" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>91</v>
@@ -6325,10 +6430,10 @@
         <v>94</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L51" s="2">
         <v>1072</v>
@@ -6342,7 +6447,9 @@
       <c r="O51" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P51" s="2"/>
+      <c r="P51" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
@@ -6350,25 +6457,25 @@
         <v>5</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="V51" s="2">
         <v>5</v>
       </c>
       <c r="W51" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X51" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y51" s="2"/>
     </row>
     <row r="52" ht="12" customHeight="1" spans="1:25">
       <c r="A52" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>91</v>
@@ -6392,10 +6499,10 @@
         <v>94</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L52" s="2">
         <v>1072</v>
@@ -6409,7 +6516,9 @@
       <c r="O52" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P52" s="2"/>
+      <c r="P52" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
@@ -6417,7 +6526,7 @@
         <v>6</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="V52" s="2">
         <v>200</v>
@@ -6426,16 +6535,16 @@
         <v>0.6</v>
       </c>
       <c r="X52" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y52" s="2"/>
     </row>
     <row r="53" ht="12" customHeight="1" spans="1:25">
       <c r="A53" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>91</v>
@@ -6459,10 +6568,10 @@
         <v>94</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L53" s="2">
         <v>1072</v>
@@ -6476,7 +6585,9 @@
       <c r="O53" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P53" s="2"/>
+      <c r="P53" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
@@ -6484,25 +6595,25 @@
         <v>7</v>
       </c>
       <c r="U53" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="V53" s="2">
         <v>8</v>
       </c>
       <c r="W53" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X53" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y53" s="2"/>
     </row>
     <row r="54" ht="12" customHeight="1" spans="1:25">
       <c r="A54" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>91</v>
@@ -6526,10 +6637,10 @@
         <v>94</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L54" s="2">
         <v>1072</v>
@@ -6543,7 +6654,9 @@
       <c r="O54" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P54" s="2"/>
+      <c r="P54" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
@@ -6551,25 +6664,25 @@
         <v>8</v>
       </c>
       <c r="U54" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="V54" s="2">
         <v>5</v>
       </c>
       <c r="W54" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X54" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y54" s="2"/>
     </row>
     <row r="55" ht="12" customHeight="1" spans="1:25">
       <c r="A55" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>91</v>
@@ -6593,10 +6706,10 @@
         <v>94</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L55" s="2">
         <v>1072</v>
@@ -6610,7 +6723,9 @@
       <c r="O55" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P55" s="2"/>
+      <c r="P55" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
@@ -6618,25 +6733,25 @@
         <v>9</v>
       </c>
       <c r="U55" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="V55" s="2">
         <v>1</v>
       </c>
       <c r="W55" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X55" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y55" s="2"/>
     </row>
     <row r="56" ht="12" customHeight="1" spans="1:25">
       <c r="A56" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>91</v>
@@ -6660,10 +6775,10 @@
         <v>94</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L56" s="2">
         <v>1072</v>
@@ -6677,7 +6792,9 @@
       <c r="O56" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P56" s="2"/>
+      <c r="P56" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
@@ -6685,25 +6802,25 @@
         <v>10</v>
       </c>
       <c r="U56" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="V56" s="2">
         <v>4</v>
       </c>
       <c r="W56" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X56" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y56" s="2"/>
     </row>
     <row r="57" spans="1:25">
       <c r="A57" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>91</v>
@@ -6727,10 +6844,10 @@
         <v>94</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L57" s="2">
         <v>1072</v>
@@ -6744,7 +6861,9 @@
       <c r="O57" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P57" s="2"/>
+      <c r="P57" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
@@ -6752,7 +6871,7 @@
         <v>11</v>
       </c>
       <c r="U57" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="V57" s="2">
         <v>1000</v>
@@ -6761,16 +6880,16 @@
         <v>0.3</v>
       </c>
       <c r="X57" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y57" s="2"/>
     </row>
     <row r="58" ht="12" customHeight="1" spans="1:26">
       <c r="A58" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>91</v>
@@ -6788,16 +6907,16 @@
         <v>93</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L58" s="2">
         <v>1081</v>
@@ -6811,7 +6930,9 @@
       <c r="O58" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P58" s="2"/>
+      <c r="P58" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
@@ -6819,7 +6940,7 @@
         <v>1</v>
       </c>
       <c r="U58" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="V58" s="2">
         <v>12000</v>
@@ -6828,7 +6949,7 @@
         <v>0.6</v>
       </c>
       <c r="X58" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Y58" s="2"/>
       <c r="Z58" t="s">
@@ -6837,10 +6958,10 @@
     </row>
     <row r="59" ht="12" customHeight="1" spans="1:25">
       <c r="A59" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>91</v>
@@ -6858,16 +6979,16 @@
         <v>93</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L59" s="2">
         <v>1081</v>
@@ -6881,7 +7002,9 @@
       <c r="O59" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P59" s="2"/>
+      <c r="P59" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
@@ -6889,7 +7012,7 @@
         <v>2</v>
       </c>
       <c r="U59" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="V59" s="2">
         <v>80</v>
@@ -6898,16 +7021,16 @@
         <v>0.3</v>
       </c>
       <c r="X59" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Y59" s="2"/>
     </row>
     <row r="60" spans="1:25">
       <c r="A60" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>91</v>
@@ -6925,16 +7048,16 @@
         <v>93</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L60" s="2">
         <v>1081</v>
@@ -6948,7 +7071,9 @@
       <c r="O60" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P60" s="2"/>
+      <c r="P60" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
@@ -6956,7 +7081,7 @@
         <v>3</v>
       </c>
       <c r="U60" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="V60" s="2">
         <v>16000</v>
@@ -6965,16 +7090,16 @@
         <v>0.7</v>
       </c>
       <c r="X60" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Y60" s="2"/>
     </row>
     <row r="61" spans="1:25">
       <c r="A61" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>91</v>
@@ -6992,16 +7117,16 @@
         <v>93</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L61" s="2">
         <v>1081</v>
@@ -7015,7 +7140,9 @@
       <c r="O61" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P61" s="2"/>
+      <c r="P61" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
@@ -7023,25 +7150,25 @@
         <v>4</v>
       </c>
       <c r="U61" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="V61" s="2">
         <v>1</v>
       </c>
       <c r="W61" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X61" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Y61" s="2"/>
     </row>
     <row r="62" spans="1:25">
       <c r="A62" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>91</v>
@@ -7059,16 +7186,16 @@
         <v>93</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L62" s="2">
         <v>1081</v>
@@ -7082,7 +7209,9 @@
       <c r="O62" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P62" s="2"/>
+      <c r="P62" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
       <c r="S62" s="2"/>
@@ -7090,25 +7219,25 @@
         <v>5</v>
       </c>
       <c r="U62" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="V62" s="2">
         <v>4</v>
       </c>
       <c r="W62" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X62" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Y62" s="2"/>
     </row>
     <row r="63" spans="1:25">
       <c r="A63" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>91</v>
@@ -7126,16 +7255,16 @@
         <v>93</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L63" s="2">
         <v>1081</v>
@@ -7149,7 +7278,9 @@
       <c r="O63" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P63" s="2"/>
+      <c r="P63" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
       <c r="S63" s="2"/>
@@ -7157,25 +7288,25 @@
         <v>6</v>
       </c>
       <c r="U63" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="V63" s="2">
         <v>1</v>
       </c>
       <c r="W63" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X63" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Y63" s="2"/>
     </row>
     <row r="64" spans="1:25">
       <c r="A64" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>91</v>
@@ -7193,16 +7324,16 @@
         <v>93</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L64" s="2">
         <v>1081</v>
@@ -7216,7 +7347,9 @@
       <c r="O64" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P64" s="2"/>
+      <c r="P64" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
       <c r="S64" s="2"/>
@@ -7224,25 +7357,25 @@
         <v>7</v>
       </c>
       <c r="U64" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="V64" s="2">
         <v>5</v>
       </c>
       <c r="W64" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X64" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Y64" s="2"/>
     </row>
     <row r="65" spans="1:25">
       <c r="A65" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>91</v>
@@ -7260,16 +7393,16 @@
         <v>93</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L65" s="2">
         <v>1081</v>
@@ -7283,7 +7416,9 @@
       <c r="O65" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P65" s="2"/>
+      <c r="P65" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
@@ -7291,25 +7426,25 @@
         <v>8</v>
       </c>
       <c r="U65" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="V65" s="2">
         <v>4</v>
       </c>
       <c r="W65" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X65" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Y65" s="2"/>
     </row>
     <row r="66" spans="1:25">
       <c r="A66" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>91</v>
@@ -7327,16 +7462,16 @@
         <v>93</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L66" s="2">
         <v>1081</v>
@@ -7350,7 +7485,9 @@
       <c r="O66" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P66" s="2"/>
+      <c r="P66" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q66" s="2"/>
       <c r="R66" s="2"/>
       <c r="S66" s="2"/>
@@ -7358,25 +7495,25 @@
         <v>9</v>
       </c>
       <c r="U66" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="V66" s="2">
         <v>6</v>
       </c>
       <c r="W66" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X66" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Y66" s="2"/>
     </row>
     <row r="67" spans="1:25">
       <c r="A67" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>91</v>
@@ -7394,16 +7531,16 @@
         <v>93</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L67" s="2">
         <v>1081</v>
@@ -7417,7 +7554,9 @@
       <c r="O67" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P67" s="2"/>
+      <c r="P67" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q67" s="2"/>
       <c r="R67" s="2"/>
       <c r="S67" s="2"/>
@@ -7425,25 +7564,25 @@
         <v>10</v>
       </c>
       <c r="U67" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="V67" s="2">
         <v>2</v>
       </c>
       <c r="W67" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X67" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Y67" s="2"/>
     </row>
     <row r="68" spans="1:26">
       <c r="A68" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>91</v>
@@ -7461,16 +7600,16 @@
         <v>93</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L68" s="2">
         <v>1085</v>
@@ -7484,7 +7623,9 @@
       <c r="O68" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P68" s="2"/>
+      <c r="P68" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
       <c r="S68" s="2"/>
@@ -7492,7 +7633,7 @@
         <v>1</v>
       </c>
       <c r="U68" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="V68" s="2">
         <v>12</v>
@@ -7501,19 +7642,19 @@
         <v>0.3</v>
       </c>
       <c r="X68" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y68" s="2"/>
       <c r="Z68" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="69" spans="1:25">
       <c r="A69" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>91</v>
@@ -7531,16 +7672,16 @@
         <v>93</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L69" s="2">
         <v>1085</v>
@@ -7554,7 +7695,9 @@
       <c r="O69" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P69" s="2"/>
+      <c r="P69" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q69" s="2"/>
       <c r="R69" s="2"/>
       <c r="S69" s="2"/>
@@ -7562,25 +7705,25 @@
         <v>2</v>
       </c>
       <c r="U69" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="V69" s="2">
         <v>1</v>
       </c>
       <c r="W69" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X69" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y69" s="2"/>
     </row>
     <row r="70" spans="1:25">
       <c r="A70" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>91</v>
@@ -7598,16 +7741,16 @@
         <v>93</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L70" s="2">
         <v>1085</v>
@@ -7621,7 +7764,9 @@
       <c r="O70" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P70" s="2"/>
+      <c r="P70" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q70" s="2"/>
       <c r="R70" s="2"/>
       <c r="S70" s="2"/>
@@ -7629,7 +7774,7 @@
         <v>3</v>
       </c>
       <c r="U70" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="V70" s="2">
         <v>40</v>
@@ -7638,16 +7783,16 @@
         <v>0.1</v>
       </c>
       <c r="X70" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y70" s="2"/>
     </row>
     <row r="71" spans="1:25">
       <c r="A71" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>91</v>
@@ -7665,16 +7810,16 @@
         <v>93</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L71" s="2">
         <v>1085</v>
@@ -7688,7 +7833,9 @@
       <c r="O71" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P71" s="2"/>
+      <c r="P71" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q71" s="2"/>
       <c r="R71" s="2"/>
       <c r="S71" s="2"/>
@@ -7696,7 +7843,7 @@
         <v>4</v>
       </c>
       <c r="U71" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="V71" s="2">
         <v>500</v>
@@ -7705,16 +7852,16 @@
         <v>0.2</v>
       </c>
       <c r="X71" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y71" s="2"/>
     </row>
     <row r="72" spans="1:25">
       <c r="A72" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>91</v>
@@ -7732,16 +7879,16 @@
         <v>93</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L72" s="2">
         <v>1085</v>
@@ -7755,7 +7902,9 @@
       <c r="O72" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P72" s="2"/>
+      <c r="P72" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q72" s="2"/>
       <c r="R72" s="2"/>
       <c r="S72" s="2"/>
@@ -7763,25 +7912,25 @@
         <v>5</v>
       </c>
       <c r="U72" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="V72" s="2">
         <v>30</v>
       </c>
       <c r="W72" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X72" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y72" s="2"/>
     </row>
     <row r="73" spans="1:25">
       <c r="A73" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>91</v>
@@ -7799,16 +7948,16 @@
         <v>93</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L73" s="2">
         <v>1085</v>
@@ -7822,7 +7971,9 @@
       <c r="O73" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P73" s="2"/>
+      <c r="P73" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
       <c r="S73" s="2"/>
@@ -7830,25 +7981,25 @@
         <v>6</v>
       </c>
       <c r="U73" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="V73" s="2">
         <v>20</v>
       </c>
       <c r="W73" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X73" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y73" s="2"/>
     </row>
     <row r="74" spans="1:25">
       <c r="A74" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>91</v>
@@ -7866,16 +8017,16 @@
         <v>93</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L74" s="2">
         <v>1085</v>
@@ -7889,7 +8040,9 @@
       <c r="O74" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P74" s="2"/>
+      <c r="P74" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q74" s="2"/>
       <c r="R74" s="2"/>
       <c r="S74" s="2"/>
@@ -7897,7 +8050,7 @@
         <v>7</v>
       </c>
       <c r="U74" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="V74" s="2">
         <v>10000</v>
@@ -7906,16 +8059,16 @@
         <v>0.9</v>
       </c>
       <c r="X74" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y74" s="2"/>
     </row>
     <row r="75" spans="1:25">
       <c r="A75" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>91</v>
@@ -7933,16 +8086,16 @@
         <v>93</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L75" s="2">
         <v>1085</v>
@@ -7956,7 +8109,9 @@
       <c r="O75" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P75" s="2"/>
+      <c r="P75" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q75" s="2"/>
       <c r="R75" s="2"/>
       <c r="S75" s="2"/>
@@ -7964,7 +8119,7 @@
         <v>8</v>
       </c>
       <c r="U75" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V75" s="2">
         <v>8</v>
@@ -7973,16 +8128,16 @@
         <v>0.2</v>
       </c>
       <c r="X75" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y75" s="2"/>
     </row>
     <row r="76" spans="1:25">
       <c r="A76" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>91</v>
@@ -8000,16 +8155,16 @@
         <v>93</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L76" s="2">
         <v>1085</v>
@@ -8023,7 +8178,9 @@
       <c r="O76" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P76" s="2"/>
+      <c r="P76" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q76" s="2"/>
       <c r="R76" s="2"/>
       <c r="S76" s="2"/>
@@ -8031,25 +8188,25 @@
         <v>9</v>
       </c>
       <c r="U76" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="V76" s="2">
         <v>8</v>
       </c>
       <c r="W76" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X76" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y76" s="2"/>
     </row>
     <row r="77" spans="1:25">
       <c r="A77" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>91</v>
@@ -8067,16 +8224,16 @@
         <v>93</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L77" s="2">
         <v>1085</v>
@@ -8090,7 +8247,9 @@
       <c r="O77" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P77" s="2"/>
+      <c r="P77" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q77" s="2"/>
       <c r="R77" s="2"/>
       <c r="S77" s="2"/>
@@ -8098,7 +8257,7 @@
         <v>10</v>
       </c>
       <c r="U77" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="V77" s="2">
         <v>400</v>
@@ -8107,16 +8266,16 @@
         <v>0.6</v>
       </c>
       <c r="X77" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y77" s="2"/>
     </row>
     <row r="78" spans="1:25">
       <c r="A78" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>91</v>
@@ -8134,16 +8293,16 @@
         <v>93</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L78" s="2">
         <v>1085</v>
@@ -8157,7 +8316,9 @@
       <c r="O78" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P78" s="2"/>
+      <c r="P78" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q78" s="2"/>
       <c r="R78" s="2"/>
       <c r="S78" s="2"/>
@@ -8165,25 +8326,25 @@
         <v>11</v>
       </c>
       <c r="U78" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="V78" s="2">
         <v>12</v>
       </c>
       <c r="W78" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X78" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y78" s="2"/>
     </row>
     <row r="79" spans="1:25">
       <c r="A79" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>91</v>
@@ -8201,16 +8362,16 @@
         <v>93</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L79" s="2">
         <v>1085</v>
@@ -8224,7 +8385,9 @@
       <c r="O79" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P79" s="2"/>
+      <c r="P79" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q79" s="2"/>
       <c r="R79" s="2"/>
       <c r="S79" s="2"/>
@@ -8232,25 +8395,25 @@
         <v>12</v>
       </c>
       <c r="U79" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="V79" s="2">
         <v>30</v>
       </c>
       <c r="W79" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X79" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y79" s="2"/>
     </row>
     <row r="80" spans="1:25">
       <c r="A80" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>91</v>
@@ -8268,16 +8431,16 @@
         <v>93</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L80" s="2">
         <v>1085</v>
@@ -8291,7 +8454,9 @@
       <c r="O80" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P80" s="2"/>
+      <c r="P80" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q80" s="2"/>
       <c r="R80" s="2"/>
       <c r="S80" s="2"/>
@@ -8299,7 +8464,7 @@
         <v>13</v>
       </c>
       <c r="U80" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="V80" s="2">
         <v>200</v>
@@ -8308,16 +8473,16 @@
         <v>0.2</v>
       </c>
       <c r="X80" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y80" s="2"/>
     </row>
     <row r="81" ht="12" customHeight="1" spans="1:26">
       <c r="A81" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>91</v>
@@ -8335,16 +8500,16 @@
         <v>93</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L81" s="2">
         <v>1097</v>
@@ -8358,7 +8523,9 @@
       <c r="O81" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P81" s="2"/>
+      <c r="P81" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q81" s="2"/>
       <c r="R81" s="2"/>
       <c r="S81" s="2"/>
@@ -8366,7 +8533,7 @@
         <v>1</v>
       </c>
       <c r="U81" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="V81" s="2">
         <v>800</v>
@@ -8375,19 +8542,19 @@
         <v>0.2</v>
       </c>
       <c r="X81" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y81" s="2"/>
       <c r="Z81" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="82" ht="12" customHeight="1" spans="1:25">
       <c r="A82" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>91</v>
@@ -8405,16 +8572,16 @@
         <v>93</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L82" s="2">
         <v>1097</v>
@@ -8428,7 +8595,9 @@
       <c r="O82" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P82" s="2"/>
+      <c r="P82" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q82" s="2"/>
       <c r="R82" s="2"/>
       <c r="S82" s="2"/>
@@ -8436,7 +8605,7 @@
         <v>2</v>
       </c>
       <c r="U82" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="V82" s="2">
         <v>300</v>
@@ -8445,16 +8614,16 @@
         <v>0.2</v>
       </c>
       <c r="X82" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y82" s="2"/>
     </row>
     <row r="83" ht="12" customHeight="1" spans="1:25">
       <c r="A83" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>91</v>
@@ -8472,16 +8641,16 @@
         <v>93</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L83" s="2">
         <v>1097</v>
@@ -8495,7 +8664,9 @@
       <c r="O83" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P83" s="2"/>
+      <c r="P83" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q83" s="2"/>
       <c r="R83" s="2"/>
       <c r="S83" s="2"/>
@@ -8503,7 +8674,7 @@
         <v>3</v>
       </c>
       <c r="U83" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="V83" s="2">
         <v>40</v>
@@ -8512,16 +8683,16 @@
         <v>0.2</v>
       </c>
       <c r="X83" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y83" s="2"/>
     </row>
     <row r="84" ht="12" customHeight="1" spans="1:25">
       <c r="A84" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>91</v>
@@ -8539,16 +8710,16 @@
         <v>93</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L84" s="2">
         <v>1097</v>
@@ -8562,7 +8733,9 @@
       <c r="O84" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P84" s="2"/>
+      <c r="P84" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q84" s="2"/>
       <c r="R84" s="2"/>
       <c r="S84" s="2"/>
@@ -8570,7 +8743,7 @@
         <v>4</v>
       </c>
       <c r="U84" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="V84" s="2">
         <v>9000</v>
@@ -8579,16 +8752,16 @@
         <v>0.7</v>
       </c>
       <c r="X84" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y84" s="2"/>
     </row>
     <row r="85" ht="12" customHeight="1" spans="1:25">
       <c r="A85" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>91</v>
@@ -8606,16 +8779,16 @@
         <v>93</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L85" s="2">
         <v>1097</v>
@@ -8629,7 +8802,9 @@
       <c r="O85" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P85" s="2"/>
+      <c r="P85" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q85" s="2"/>
       <c r="R85" s="2"/>
       <c r="S85" s="2"/>
@@ -8637,7 +8812,7 @@
         <v>5</v>
       </c>
       <c r="U85" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="V85" s="2">
         <v>3000</v>
@@ -8646,16 +8821,16 @@
         <v>0.3</v>
       </c>
       <c r="X85" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y85" s="2"/>
     </row>
     <row r="86" ht="12" customHeight="1" spans="1:25">
       <c r="A86" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>91</v>
@@ -8673,16 +8848,16 @@
         <v>93</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L86" s="2">
         <v>1097</v>
@@ -8696,7 +8871,9 @@
       <c r="O86" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P86" s="2"/>
+      <c r="P86" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q86" s="2"/>
       <c r="R86" s="2"/>
       <c r="S86" s="2"/>
@@ -8704,25 +8881,25 @@
         <v>6</v>
       </c>
       <c r="U86" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="V86" s="2">
         <v>200</v>
       </c>
       <c r="W86" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X86" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y86" s="2"/>
     </row>
     <row r="87" ht="12" customHeight="1" spans="1:25">
       <c r="A87" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>91</v>
@@ -8740,16 +8917,16 @@
         <v>93</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L87" s="2">
         <v>1097</v>
@@ -8763,7 +8940,9 @@
       <c r="O87" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P87" s="2"/>
+      <c r="P87" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q87" s="2"/>
       <c r="R87" s="2"/>
       <c r="S87" s="2"/>
@@ -8771,7 +8950,7 @@
         <v>7</v>
       </c>
       <c r="U87" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="V87" s="2">
         <v>5000</v>
@@ -8780,16 +8959,16 @@
         <v>0.5</v>
       </c>
       <c r="X87" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y87" s="2"/>
     </row>
     <row r="88" ht="12" customHeight="1" spans="1:25">
       <c r="A88" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>91</v>
@@ -8807,16 +8986,16 @@
         <v>93</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L88" s="2">
         <v>1097</v>
@@ -8830,7 +9009,9 @@
       <c r="O88" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P88" s="2"/>
+      <c r="P88" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q88" s="2"/>
       <c r="R88" s="2"/>
       <c r="S88" s="2"/>
@@ -8838,25 +9019,25 @@
         <v>8</v>
       </c>
       <c r="U88" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="V88" s="2">
         <v>4</v>
       </c>
       <c r="W88" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X88" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y88" s="2"/>
     </row>
     <row r="89" ht="12" customHeight="1" spans="1:25">
       <c r="A89" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>91</v>
@@ -8874,16 +9055,16 @@
         <v>93</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L89" s="2">
         <v>1097</v>
@@ -8897,7 +9078,9 @@
       <c r="O89" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P89" s="2"/>
+      <c r="P89" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q89" s="2"/>
       <c r="R89" s="2"/>
       <c r="S89" s="2"/>
@@ -8905,25 +9088,25 @@
         <v>9</v>
       </c>
       <c r="U89" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="V89" s="2">
         <v>30</v>
       </c>
       <c r="W89" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X89" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y89" s="2"/>
     </row>
     <row r="90" ht="12" customHeight="1" spans="1:25">
       <c r="A90" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>91</v>
@@ -8941,16 +9124,16 @@
         <v>93</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L90" s="2">
         <v>1097</v>
@@ -8964,7 +9147,9 @@
       <c r="O90" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P90" s="2"/>
+      <c r="P90" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q90" s="2"/>
       <c r="R90" s="2"/>
       <c r="S90" s="2"/>
@@ -8972,25 +9157,25 @@
         <v>10</v>
       </c>
       <c r="U90" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="V90" s="2">
         <v>10</v>
       </c>
       <c r="W90" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X90" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y90" s="2"/>
     </row>
     <row r="91" ht="12" customHeight="1" spans="1:25">
       <c r="A91" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>91</v>
@@ -9008,16 +9193,16 @@
         <v>93</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L91" s="2">
         <v>1097</v>
@@ -9031,7 +9216,9 @@
       <c r="O91" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P91" s="2"/>
+      <c r="P91" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q91" s="2"/>
       <c r="R91" s="2"/>
       <c r="S91" s="2"/>
@@ -9039,25 +9226,25 @@
         <v>11</v>
       </c>
       <c r="U91" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="V91" s="2">
         <v>5</v>
       </c>
       <c r="W91" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X91" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y91" s="2"/>
     </row>
     <row r="92" ht="12" customHeight="1" spans="1:25">
       <c r="A92" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>91</v>
@@ -9075,16 +9262,16 @@
         <v>93</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L92" s="2">
         <v>1097</v>
@@ -9098,7 +9285,9 @@
       <c r="O92" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P92" s="2"/>
+      <c r="P92" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q92" s="2"/>
       <c r="R92" s="2"/>
       <c r="S92" s="2"/>
@@ -9106,25 +9295,25 @@
         <v>12</v>
       </c>
       <c r="U92" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="V92" s="2">
         <v>2</v>
       </c>
       <c r="W92" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X92" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y92" s="2"/>
     </row>
     <row r="93" spans="1:25">
       <c r="A93" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>91</v>
@@ -9142,16 +9331,16 @@
         <v>93</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L93" s="2">
         <v>1097</v>
@@ -9165,7 +9354,9 @@
       <c r="O93" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P93" s="2"/>
+      <c r="P93" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q93" s="2"/>
       <c r="R93" s="2"/>
       <c r="S93" s="2"/>
@@ -9173,25 +9364,25 @@
         <v>13</v>
       </c>
       <c r="U93" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="V93" s="2">
         <v>4</v>
       </c>
       <c r="W93" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X93" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y93" s="2"/>
     </row>
     <row r="94" ht="12" customHeight="1" spans="1:26">
       <c r="A94" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>91</v>
@@ -9215,10 +9406,10 @@
         <v>94</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L94" s="2">
         <v>1084</v>
@@ -9232,7 +9423,9 @@
       <c r="O94" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P94" s="2"/>
+      <c r="P94" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q94" s="2"/>
       <c r="R94" s="2"/>
       <c r="S94" s="2"/>
@@ -9240,7 +9433,7 @@
         <v>1</v>
       </c>
       <c r="U94" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="V94" s="2">
         <v>2000</v>
@@ -9249,19 +9442,19 @@
         <v>0.4</v>
       </c>
       <c r="X94" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y94" s="2"/>
       <c r="Z94" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="95" ht="12" customHeight="1" spans="1:25">
       <c r="A95" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>91</v>
@@ -9285,10 +9478,10 @@
         <v>94</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L95" s="2">
         <v>1084</v>
@@ -9302,7 +9495,9 @@
       <c r="O95" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P95" s="2"/>
+      <c r="P95" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q95" s="2"/>
       <c r="R95" s="2"/>
       <c r="S95" s="2"/>
@@ -9310,7 +9505,7 @@
         <v>2</v>
       </c>
       <c r="U95" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="V95" s="2">
         <v>150</v>
@@ -9319,16 +9514,16 @@
         <v>0.3</v>
       </c>
       <c r="X95" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y95" s="2"/>
     </row>
     <row r="96" ht="12" customHeight="1" spans="1:25">
       <c r="A96" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>91</v>
@@ -9352,10 +9547,10 @@
         <v>94</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L96" s="2">
         <v>1084</v>
@@ -9369,7 +9564,9 @@
       <c r="O96" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P96" s="2"/>
+      <c r="P96" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q96" s="2"/>
       <c r="R96" s="2"/>
       <c r="S96" s="2"/>
@@ -9377,7 +9574,7 @@
         <v>3</v>
       </c>
       <c r="U96" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="V96" s="2">
         <v>15</v>
@@ -9386,16 +9583,16 @@
         <v>0.1</v>
       </c>
       <c r="X96" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y96" s="2"/>
     </row>
     <row r="97" ht="12" customHeight="1" spans="1:25">
       <c r="A97" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>91</v>
@@ -9419,10 +9616,10 @@
         <v>94</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L97" s="2">
         <v>1084</v>
@@ -9436,7 +9633,9 @@
       <c r="O97" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P97" s="2"/>
+      <c r="P97" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q97" s="2"/>
       <c r="R97" s="2"/>
       <c r="S97" s="2"/>
@@ -9444,25 +9643,25 @@
         <v>4</v>
       </c>
       <c r="U97" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V97" s="2">
         <v>1</v>
       </c>
       <c r="W97" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X97" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y97" s="2"/>
     </row>
     <row r="98" ht="12" customHeight="1" spans="1:25">
       <c r="A98" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>91</v>
@@ -9486,10 +9685,10 @@
         <v>94</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L98" s="2">
         <v>1084</v>
@@ -9503,7 +9702,9 @@
       <c r="O98" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P98" s="2"/>
+      <c r="P98" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q98" s="2"/>
       <c r="R98" s="2"/>
       <c r="S98" s="2"/>
@@ -9511,7 +9712,7 @@
         <v>5</v>
       </c>
       <c r="U98" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V98" s="2">
         <v>500</v>
@@ -9520,16 +9721,16 @@
         <v>0.3</v>
       </c>
       <c r="X98" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y98" s="2"/>
     </row>
     <row r="99" ht="12" customHeight="1" spans="1:25">
       <c r="A99" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>91</v>
@@ -9553,10 +9754,10 @@
         <v>94</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L99" s="2">
         <v>1084</v>
@@ -9570,7 +9771,9 @@
       <c r="O99" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P99" s="2"/>
+      <c r="P99" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q99" s="2"/>
       <c r="R99" s="2"/>
       <c r="S99" s="2"/>
@@ -9578,25 +9781,25 @@
         <v>6</v>
       </c>
       <c r="U99" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="V99" s="2">
         <v>2</v>
       </c>
       <c r="W99" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X99" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y99" s="2"/>
     </row>
     <row r="100" ht="12" customHeight="1" spans="1:25">
       <c r="A100" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>91</v>
@@ -9620,10 +9823,10 @@
         <v>94</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L100" s="2">
         <v>1084</v>
@@ -9637,7 +9840,9 @@
       <c r="O100" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P100" s="2"/>
+      <c r="P100" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q100" s="2"/>
       <c r="R100" s="2"/>
       <c r="S100" s="2"/>
@@ -9645,25 +9850,25 @@
         <v>7</v>
       </c>
       <c r="U100" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="V100" s="2">
         <v>3</v>
       </c>
       <c r="W100" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X100" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y100" s="2"/>
     </row>
     <row r="101" ht="12" customHeight="1" spans="1:25">
       <c r="A101" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>91</v>
@@ -9687,10 +9892,10 @@
         <v>94</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L101" s="2">
         <v>1084</v>
@@ -9704,7 +9909,9 @@
       <c r="O101" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P101" s="2"/>
+      <c r="P101" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q101" s="2"/>
       <c r="R101" s="2"/>
       <c r="S101" s="2"/>
@@ -9712,25 +9919,25 @@
         <v>8</v>
       </c>
       <c r="U101" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="V101" s="2">
         <v>8</v>
       </c>
       <c r="W101" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X101" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y101" s="2"/>
     </row>
     <row r="102" ht="12" customHeight="1" spans="1:25">
       <c r="A102" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>91</v>
@@ -9754,10 +9961,10 @@
         <v>94</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L102" s="2">
         <v>1084</v>
@@ -9771,7 +9978,9 @@
       <c r="O102" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P102" s="2"/>
+      <c r="P102" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q102" s="2"/>
       <c r="R102" s="2"/>
       <c r="S102" s="2"/>
@@ -9779,25 +9988,25 @@
         <v>9</v>
       </c>
       <c r="U102" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="V102" s="2">
         <v>2</v>
       </c>
       <c r="W102" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X102" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y102" s="2"/>
     </row>
     <row r="103" ht="12" customHeight="1" spans="1:25">
       <c r="A103" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>91</v>
@@ -9821,10 +10030,10 @@
         <v>94</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L103" s="2">
         <v>1084</v>
@@ -9838,7 +10047,9 @@
       <c r="O103" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P103" s="2"/>
+      <c r="P103" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q103" s="2"/>
       <c r="R103" s="2"/>
       <c r="S103" s="2"/>
@@ -9846,25 +10057,25 @@
         <v>10</v>
       </c>
       <c r="U103" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="V103" s="2">
         <v>20</v>
       </c>
       <c r="W103" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X103" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y103" s="2"/>
     </row>
     <row r="104" ht="12" customHeight="1" spans="1:25">
       <c r="A104" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>91</v>
@@ -9888,10 +10099,10 @@
         <v>94</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L104" s="2">
         <v>1084</v>
@@ -9905,7 +10116,9 @@
       <c r="O104" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P104" s="2"/>
+      <c r="P104" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q104" s="2"/>
       <c r="R104" s="2"/>
       <c r="S104" s="2"/>
@@ -9913,25 +10126,25 @@
         <v>11</v>
       </c>
       <c r="U104" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="V104" s="2">
         <v>5</v>
       </c>
       <c r="W104" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X104" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y104" s="2"/>
     </row>
     <row r="105" ht="12" customHeight="1" spans="1:25">
       <c r="A105" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>91</v>
@@ -9955,10 +10168,10 @@
         <v>94</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L105" s="2">
         <v>1084</v>
@@ -9972,7 +10185,9 @@
       <c r="O105" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P105" s="2"/>
+      <c r="P105" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q105" s="2"/>
       <c r="R105" s="2"/>
       <c r="S105" s="2"/>
@@ -9980,25 +10195,25 @@
         <v>12</v>
       </c>
       <c r="U105" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="V105" s="2">
         <v>1</v>
       </c>
       <c r="W105" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X105" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y105" s="2"/>
     </row>
     <row r="106" ht="12" customHeight="1" spans="1:25">
       <c r="A106" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>91</v>
@@ -10022,10 +10237,10 @@
         <v>94</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L106" s="2">
         <v>1084</v>
@@ -10039,7 +10254,9 @@
       <c r="O106" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P106" s="2"/>
+      <c r="P106" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q106" s="2"/>
       <c r="R106" s="2"/>
       <c r="S106" s="2"/>
@@ -10047,7 +10264,7 @@
         <v>13</v>
       </c>
       <c r="U106" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="V106" s="2">
         <v>200</v>
@@ -10056,16 +10273,16 @@
         <v>0.1</v>
       </c>
       <c r="X106" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y106" s="2"/>
     </row>
     <row r="107" ht="12" customHeight="1" spans="1:25">
       <c r="A107" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>91</v>
@@ -10089,10 +10306,10 @@
         <v>94</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L107" s="2">
         <v>1084</v>
@@ -10106,7 +10323,9 @@
       <c r="O107" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P107" s="2"/>
+      <c r="P107" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q107" s="2"/>
       <c r="R107" s="2"/>
       <c r="S107" s="2"/>
@@ -10114,25 +10333,25 @@
         <v>14</v>
       </c>
       <c r="U107" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="V107" s="2">
         <v>2</v>
       </c>
       <c r="W107" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X107" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y107" s="2"/>
     </row>
     <row r="108" ht="12" customHeight="1" spans="1:25">
       <c r="A108" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>91</v>
@@ -10156,10 +10375,10 @@
         <v>94</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L108" s="2">
         <v>1084</v>
@@ -10173,7 +10392,9 @@
       <c r="O108" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P108" s="2"/>
+      <c r="P108" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q108" s="2"/>
       <c r="R108" s="2"/>
       <c r="S108" s="2"/>
@@ -10181,25 +10402,25 @@
         <v>15</v>
       </c>
       <c r="U108" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="V108" s="2">
         <v>1</v>
       </c>
       <c r="W108" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X108" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y108" s="2"/>
     </row>
     <row r="109" ht="12" customHeight="1" spans="1:25">
       <c r="A109" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>91</v>
@@ -10223,10 +10444,10 @@
         <v>94</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L109" s="2">
         <v>1084</v>
@@ -10240,7 +10461,9 @@
       <c r="O109" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P109" s="2"/>
+      <c r="P109" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q109" s="2"/>
       <c r="R109" s="2"/>
       <c r="S109" s="2"/>
@@ -10248,25 +10471,25 @@
         <v>16</v>
       </c>
       <c r="U109" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="V109" s="2">
         <v>40</v>
       </c>
       <c r="W109" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X109" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y109" s="2"/>
     </row>
     <row r="110" ht="12" customHeight="1" spans="1:25">
       <c r="A110" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>91</v>
@@ -10290,10 +10513,10 @@
         <v>94</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L110" s="2">
         <v>1084</v>
@@ -10307,7 +10530,9 @@
       <c r="O110" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P110" s="2"/>
+      <c r="P110" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q110" s="2"/>
       <c r="R110" s="2"/>
       <c r="S110" s="2"/>
@@ -10315,7 +10540,7 @@
         <v>17</v>
       </c>
       <c r="U110" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="V110" s="2">
         <v>2</v>
@@ -10324,16 +10549,16 @@
         <v>0.2</v>
       </c>
       <c r="X110" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y110" s="2"/>
     </row>
     <row r="111" ht="12" customHeight="1" spans="1:25">
       <c r="A111" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>91</v>
@@ -10357,10 +10582,10 @@
         <v>94</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L111" s="2">
         <v>1084</v>
@@ -10374,7 +10599,9 @@
       <c r="O111" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P111" s="2"/>
+      <c r="P111" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q111" s="2"/>
       <c r="R111" s="2"/>
       <c r="S111" s="2"/>
@@ -10382,7 +10609,7 @@
         <v>18</v>
       </c>
       <c r="U111" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="V111" s="2">
         <v>10</v>
@@ -10391,16 +10618,16 @@
         <v>0.3</v>
       </c>
       <c r="X111" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y111" s="2"/>
     </row>
     <row r="112" ht="12" customHeight="1" spans="1:25">
       <c r="A112" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>91</v>
@@ -10424,10 +10651,10 @@
         <v>94</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L112" s="2">
         <v>1084</v>
@@ -10441,7 +10668,9 @@
       <c r="O112" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P112" s="2"/>
+      <c r="P112" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q112" s="2"/>
       <c r="R112" s="2"/>
       <c r="S112" s="2"/>
@@ -10449,7 +10678,7 @@
         <v>19</v>
       </c>
       <c r="U112" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="V112" s="2">
         <v>5</v>
@@ -10458,16 +10687,16 @@
         <v>0.2</v>
       </c>
       <c r="X112" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y112" s="2"/>
     </row>
     <row r="113" ht="12" customHeight="1" spans="1:25">
       <c r="A113" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>91</v>
@@ -10491,10 +10720,10 @@
         <v>94</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L113" s="2">
         <v>1084</v>
@@ -10508,7 +10737,9 @@
       <c r="O113" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P113" s="2"/>
+      <c r="P113" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q113" s="2"/>
       <c r="R113" s="2"/>
       <c r="S113" s="2"/>
@@ -10516,25 +10747,25 @@
         <v>20</v>
       </c>
       <c r="U113" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="V113" s="2">
         <v>4</v>
       </c>
       <c r="W113" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X113" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y113" s="2"/>
     </row>
     <row r="114" ht="12" customHeight="1" spans="1:25">
       <c r="A114" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>91</v>
@@ -10558,10 +10789,10 @@
         <v>94</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L114" s="2">
         <v>1084</v>
@@ -10575,7 +10806,9 @@
       <c r="O114" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P114" s="2"/>
+      <c r="P114" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q114" s="2"/>
       <c r="R114" s="2"/>
       <c r="S114" s="2"/>
@@ -10583,7 +10816,7 @@
         <v>21</v>
       </c>
       <c r="U114" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="V114" s="2">
         <v>100</v>
@@ -10592,16 +10825,16 @@
         <v>0.2</v>
       </c>
       <c r="X114" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y114" s="2"/>
     </row>
     <row r="115" ht="12" customHeight="1" spans="1:25">
       <c r="A115" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>91</v>
@@ -10625,10 +10858,10 @@
         <v>94</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L115" s="2">
         <v>1084</v>
@@ -10642,7 +10875,9 @@
       <c r="O115" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P115" s="2"/>
+      <c r="P115" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q115" s="2"/>
       <c r="R115" s="2"/>
       <c r="S115" s="2"/>
@@ -10650,25 +10885,25 @@
         <v>22</v>
       </c>
       <c r="U115" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="V115" s="2">
         <v>8</v>
       </c>
       <c r="W115" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X115" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y115" s="2"/>
     </row>
     <row r="116" ht="12" customHeight="1" spans="1:25">
       <c r="A116" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>91</v>
@@ -10692,10 +10927,10 @@
         <v>94</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L116" s="2">
         <v>1084</v>
@@ -10709,7 +10944,9 @@
       <c r="O116" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P116" s="2"/>
+      <c r="P116" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q116" s="2"/>
       <c r="R116" s="2"/>
       <c r="S116" s="2"/>
@@ -10717,7 +10954,7 @@
         <v>23</v>
       </c>
       <c r="U116" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="V116" s="2">
         <v>50</v>
@@ -10726,16 +10963,16 @@
         <v>0.1</v>
       </c>
       <c r="X116" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y116" s="2"/>
     </row>
     <row r="117" ht="12" customHeight="1" spans="1:25">
       <c r="A117" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>91</v>
@@ -10759,10 +10996,10 @@
         <v>94</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L117" s="2">
         <v>1084</v>
@@ -10776,7 +11013,9 @@
       <c r="O117" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P117" s="2"/>
+      <c r="P117" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q117" s="2"/>
       <c r="R117" s="2"/>
       <c r="S117" s="2"/>
@@ -10784,25 +11023,25 @@
         <v>24</v>
       </c>
       <c r="U117" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="V117" s="2">
         <v>10</v>
       </c>
       <c r="W117" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X117" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y117" s="2"/>
     </row>
     <row r="118" ht="12" customHeight="1" spans="1:25">
       <c r="A118" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>91</v>
@@ -10826,10 +11065,10 @@
         <v>94</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L118" s="2">
         <v>1084</v>
@@ -10843,7 +11082,9 @@
       <c r="O118" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P118" s="2"/>
+      <c r="P118" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q118" s="2"/>
       <c r="R118" s="2"/>
       <c r="S118" s="2"/>
@@ -10851,7 +11092,7 @@
         <v>25</v>
       </c>
       <c r="U118" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="V118" s="2">
         <v>20</v>
@@ -10860,16 +11101,16 @@
         <v>0.1</v>
       </c>
       <c r="X118" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y118" s="2"/>
     </row>
     <row r="119" ht="12" customHeight="1" spans="1:25">
       <c r="A119" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>91</v>
@@ -10893,10 +11134,10 @@
         <v>94</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L119" s="2">
         <v>1084</v>
@@ -10910,7 +11151,9 @@
       <c r="O119" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P119" s="2"/>
+      <c r="P119" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q119" s="2"/>
       <c r="R119" s="2"/>
       <c r="S119" s="2"/>
@@ -10918,25 +11161,25 @@
         <v>26</v>
       </c>
       <c r="U119" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V119" s="2">
         <v>1</v>
       </c>
       <c r="W119" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X119" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y119" s="2"/>
     </row>
     <row r="120" ht="12" customHeight="1" spans="1:25">
       <c r="A120" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>91</v>
@@ -10960,10 +11203,10 @@
         <v>94</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L120" s="2">
         <v>1084</v>
@@ -10977,7 +11220,9 @@
       <c r="O120" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P120" s="2"/>
+      <c r="P120" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q120" s="2"/>
       <c r="R120" s="2"/>
       <c r="S120" s="2"/>
@@ -10985,25 +11230,25 @@
         <v>27</v>
       </c>
       <c r="U120" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="V120" s="2">
         <v>2</v>
       </c>
       <c r="W120" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X120" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y120" s="2"/>
     </row>
     <row r="121" spans="1:25">
       <c r="A121" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>91</v>
@@ -11027,10 +11272,10 @@
         <v>94</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L121" s="2">
         <v>1084</v>
@@ -11044,7 +11289,9 @@
       <c r="O121" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P121" s="2"/>
+      <c r="P121" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q121" s="2"/>
       <c r="R121" s="2"/>
       <c r="S121" s="2"/>
@@ -11052,25 +11299,25 @@
         <v>28</v>
       </c>
       <c r="U121" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="V121" s="2">
         <v>3</v>
       </c>
       <c r="W121" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X121" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y121" s="2"/>
     </row>
     <row r="122" spans="1:25">
       <c r="A122" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>91</v>
@@ -11094,10 +11341,10 @@
         <v>94</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L122" s="2">
         <v>1084</v>
@@ -11111,7 +11358,9 @@
       <c r="O122" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P122" s="2"/>
+      <c r="P122" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q122" s="2"/>
       <c r="R122" s="2"/>
       <c r="S122" s="2"/>
@@ -11119,7 +11368,7 @@
         <v>29</v>
       </c>
       <c r="U122" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="V122" s="2">
         <v>17000</v>
@@ -11128,7 +11377,7 @@
         <v>0.9</v>
       </c>
       <c r="X122" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Y122" s="2"/>
     </row>
